--- a/CsvCompares/DataCopyLocation/Entire Game/Text2CSV/csvs/Player&Team_ID_Mapping.xlsx
+++ b/CsvCompares/DataCopyLocation/Entire Game/Text2CSV/csvs/Player&Team_ID_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7d8e9cf43f10108/Desktop/Github/SMB4_Improved_Stat_Tracker/bin/Debug/net7.0/DataCopyLocation/Entire Game/Text2CSV/csvs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wesanderson/Desktop/SMB4_Improved_Stat_Tracker/CsvCompares/DataCopyLocation/Entire Game/Text2CSV/csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{A07E783F-DD69-4C6C-9853-939F1E08F70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0651720B-C3D2-46E1-907C-DB87127DAD08}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BA15EE-833E-7949-A71A-655E2FE1BBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="2250" windowWidth="23190" windowHeight="11835" xr2:uid="{67548BF5-54B2-439E-9F35-C7417EC680F6}"/>
+    <workbookView xWindow="0" yWindow="1700" windowWidth="23200" windowHeight="12820" xr2:uid="{67548BF5-54B2-439E-9F35-C7417EC680F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="161">
   <si>
     <t>068E1AE616334F369FECB3E540D65732</t>
   </si>
@@ -495,13 +495,37 @@
   </si>
   <si>
     <t>Not Found</t>
+  </si>
+  <si>
+    <t>TI1AB2</t>
+  </si>
+  <si>
+    <t>000002F4 00001A82</t>
+  </si>
+  <si>
+    <t>000002F4 00001A82 00005A10</t>
+  </si>
+  <si>
+    <t>000002F4 00001A82 00005A76</t>
+  </si>
+  <si>
+    <t>TI1AB3</t>
+  </si>
+  <si>
+    <t>TI1AB3P1</t>
+  </si>
+  <si>
+    <t>000015B9 00006FCC</t>
+  </si>
+  <si>
+    <t>Season.sav are compressed files. :(</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -606,6 +630,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,10 +648,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -924,22 +947,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7431C85-9F3D-477D-ABE5-2F9B816A5C16}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="144" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="41" style="8" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="8" customWidth="1"/>
-    <col min="4" max="15" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="2" width="14.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="8" customWidth="1"/>
+    <col min="4" max="14" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -950,7 +974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="42">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="42">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -972,12 +996,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
+      <c r="P6" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="P7" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1011,8 +1040,17 @@
       <c r="P8" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="Q8" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="28">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1048,11 +1086,24 @@
       <c r="O9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="Q9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" ht="28">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1092,8 +1143,22 @@
       <c r="O10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P10" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" ht="28">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1198,22 @@
       <c r="O11" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P11" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" ht="28">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1170,8 +1249,22 @@
       <c r="O12" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P12" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" ht="28">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1211,8 +1304,22 @@
       <c r="O13" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P13" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" ht="70">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1248,8 +1355,26 @@
       <c r="O14" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P14" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" ht="28">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1285,8 +1410,22 @@
       <c r="O15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" ht="28">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
@@ -1326,8 +1465,20 @@
       <c r="O16" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+    </row>
+    <row r="17" spans="1:27" ht="28">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1367,8 +1518,20 @@
       <c r="O17" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+    </row>
+    <row r="18" spans="1:27" ht="28">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1408,8 +1571,20 @@
       <c r="O18" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+    </row>
+    <row r="19" spans="1:27" ht="28">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1449,8 +1624,20 @@
       <c r="O19" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+    </row>
+    <row r="20" spans="1:27" ht="28">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1490,8 +1677,20 @@
       <c r="O20" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+    </row>
+    <row r="21" spans="1:27" ht="28">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1527,8 +1726,20 @@
       <c r="O21" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+    </row>
+    <row r="22" spans="1:27" ht="28">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1564,8 +1775,20 @@
       <c r="O22" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+    </row>
+    <row r="23" spans="1:27" ht="28">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1601,8 +1824,20 @@
       <c r="O23" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+    </row>
+    <row r="24" spans="1:27" ht="28">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1638,8 +1873,20 @@
       <c r="O24" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+    </row>
+    <row r="25" spans="1:27" ht="28">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1679,8 +1926,20 @@
       <c r="O25" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+    </row>
+    <row r="26" spans="1:27" ht="28">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1716,8 +1975,20 @@
       <c r="O26" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+    </row>
+    <row r="27" spans="1:27" ht="28">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1753,8 +2024,20 @@
       <c r="O27" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+    </row>
+    <row r="28" spans="1:27" ht="28">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1790,8 +2073,20 @@
       <c r="O28" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+    </row>
+    <row r="29" spans="1:27" ht="28">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1827,8 +2122,20 @@
       <c r="O29" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+    </row>
+    <row r="30" spans="1:27" ht="28">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1864,8 +2171,20 @@
       <c r="O30" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+    </row>
+    <row r="31" spans="1:27" ht="28">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1901,8 +2220,22 @@
       <c r="O31" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+    </row>
+    <row r="32" spans="1:27" ht="28">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1938,8 +2271,22 @@
       <c r="O32" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+    </row>
+    <row r="33" spans="1:27" ht="28">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1975,8 +2322,22 @@
       <c r="O33" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+    </row>
+    <row r="34" spans="1:27" ht="14">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -2012,8 +2373,20 @@
       <c r="O34" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+    </row>
+    <row r="35" spans="1:27" ht="28">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -2049,8 +2422,20 @@
       <c r="O35" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+    </row>
+    <row r="36" spans="1:27" ht="14">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -2090,8 +2475,20 @@
       <c r="O36" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+    </row>
+    <row r="37" spans="1:27" ht="28">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -2127,8 +2524,20 @@
       <c r="O37" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+    </row>
+    <row r="38" spans="1:27" ht="28">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2168,8 +2577,20 @@
       <c r="O38" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+    </row>
+    <row r="39" spans="1:27" ht="14">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -2205,8 +2626,20 @@
       <c r="O39" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+    </row>
+    <row r="40" spans="1:27" ht="14">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2246,8 +2679,20 @@
       <c r="O40" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+    </row>
+    <row r="41" spans="1:27" ht="28">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -2283,8 +2728,20 @@
       <c r="O41" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+    </row>
+    <row r="42" spans="1:27" ht="28">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -2324,8 +2781,20 @@
       <c r="O42" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+    </row>
+    <row r="43" spans="1:27" ht="28">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -2361,8 +2830,20 @@
       <c r="O43" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+    </row>
+    <row r="44" spans="1:27" ht="28">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -2402,8 +2883,20 @@
       <c r="O44" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+    </row>
+    <row r="45" spans="1:27" ht="14">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -2443,8 +2936,20 @@
       <c r="O45" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+    </row>
+    <row r="46" spans="1:27" ht="14">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -2484,8 +2989,20 @@
       <c r="O46" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+    </row>
+    <row r="47" spans="1:27" ht="14">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -2521,8 +3038,20 @@
       <c r="O47" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+    </row>
+    <row r="48" spans="1:27" ht="14">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -2558,8 +3087,20 @@
       <c r="O48" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+    </row>
+    <row r="49" spans="1:27" ht="56">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -2599,8 +3140,22 @@
       <c r="O49" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+    </row>
+    <row r="50" spans="1:27" ht="14">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -2636,8 +3191,20 @@
       <c r="O50" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+    </row>
+    <row r="51" spans="1:27" ht="28">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -2677,8 +3244,20 @@
       <c r="O51" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+    </row>
+    <row r="52" spans="1:27" ht="28">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -2714,6 +3293,18 @@
       <c r="O52" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
